--- a/Documentos/Chilpancingo/Usuarios Guerrero.xlsx
+++ b/Documentos/Chilpancingo/Usuarios Guerrero.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrivas\AppData\Local\Microsoft\Windows\INetCache\Content.Outlook\RC1FEOHT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MAR\BTS\Documentos\Chilpancingo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
   </bookViews>
   <sheets>
     <sheet name="CHILPANCINGO" sheetId="15" r:id="rId1"/>
@@ -1054,6 +1054,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1075,15 +1084,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1103,7 +1103,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1391,11 +1391,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
@@ -1410,16 +1410,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -1597,16 +1597,16 @@
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
@@ -1691,16 +1691,16 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
@@ -1889,16 +1889,16 @@
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
@@ -1979,28 +1979,28 @@
       </c>
     </row>
     <row r="31" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="18"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="21"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="22"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
@@ -2107,16 +2107,16 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="22"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="15"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
@@ -2197,16 +2197,16 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="22"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="15"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
@@ -2313,16 +2313,16 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="22"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="15"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
@@ -2429,16 +2429,16 @@
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="22"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="15"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
@@ -2546,16 +2546,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B31:I31"/>
     <mergeCell ref="B32:I32"/>
     <mergeCell ref="B37:I37"/>
     <mergeCell ref="B41:I41"/>
     <mergeCell ref="B46:I46"/>
     <mergeCell ref="B51:I51"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B31:I31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2566,11 +2566,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
@@ -2585,16 +2585,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -2783,16 +2783,16 @@
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
@@ -2873,16 +2873,16 @@
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="22"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
@@ -2992,16 +2992,16 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="22"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
@@ -3111,16 +3111,16 @@
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="22"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
@@ -3203,16 +3203,16 @@
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="22"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
@@ -3322,16 +3322,16 @@
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="22"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="15"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
@@ -3414,16 +3414,16 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="22"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="15"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
@@ -3523,11 +3523,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
@@ -3542,16 +3542,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -3662,28 +3662,28 @@
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="22"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
@@ -3790,16 +3790,16 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="22"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
@@ -3926,11 +3926,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G7" sqref="G1:J1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
@@ -3945,16 +3945,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -4065,16 +4065,16 @@
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
@@ -4181,16 +4181,16 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="22"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
@@ -4297,16 +4297,16 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="22"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
@@ -4389,16 +4389,16 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="22"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
@@ -4526,11 +4526,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
@@ -4545,16 +4545,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -4665,28 +4665,28 @@
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="22"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
@@ -4793,16 +4793,16 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="22"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
